--- a/biology/Zoologie/Heliopora_coerulea/Heliopora_coerulea.xlsx
+++ b/biology/Zoologie/Heliopora_coerulea/Heliopora_coerulea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliopora coerulea[3] est une espèce de coraux octocoralliaires, communément appelée corail bleu. C'est l'unique espèce de la famille des Helioporidae et du genre Heliopora.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliopora coerulea est une espèce de coraux octocoralliaires, communément appelée corail bleu. C'est l'unique espèce de la famille des Helioporidae et du genre Heliopora.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'exosquelette calcaire de H. coerulea se développe en branches verticales ; les spécimens vivant dans des eaux calmes sont plus fins que ceux vivant dans des eaux agitées. Il s'agit de la seule espèce connue de la sous-classe Octocorallia à produire un squelette aussi imposant[4]. Le corail adopte une teinte bleue quand il est propre mais l'épithélium lui donne une teinte brune. Les polypes sont petits et munis de 8 bras ; ils semblent légèrement poilus[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exosquelette calcaire de H. coerulea se développe en branches verticales ; les spécimens vivant dans des eaux calmes sont plus fins que ceux vivant dans des eaux agitées. Il s'agit de la seule espèce connue de la sous-classe Octocorallia à produire un squelette aussi imposant. Le corail adopte une teinte bleue quand il est propre mais l'épithélium lui donne une teinte brune. Les polypes sont petits et munis de 8 bras ; ils semblent légèrement poilus.
 L'absence de corallites, l'allure de certaines colonies et les crêtes claires les font souvent confondre avec les coraux de feu (genre Millepora). 
 			Colonie vivante dans son environnement naturel.
 			Gros-plan sur les polypes (et les 8 tentacules).
@@ -548,9 +562,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans une vaste partie de l'Indo-Pacifique. Elle est répertoriée de la mer Rouge jusqu'au sud de l'Afrique, et du Japon jusque la Polynésie et les Samoa. Le plus grand récif de H. coerulea connu à ce jour est situé au large de l'île Ishigaki, au sud-ouest du Japon. Le corail s'organise en récifs d'une taille généralement inférieure à 2 m. Son habitat principal est compris dans la zone intertidale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans une vaste partie de l'Indo-Pacifique. Elle est répertoriée de la mer Rouge jusqu'au sud de l'Afrique, et du Japon jusque la Polynésie et les Samoa. Le plus grand récif de H. coerulea connu à ce jour est situé au large de l'île Ishigaki, au sud-ouest du Japon. Le corail s'organise en récifs d'une taille généralement inférieure à 2 m. Son habitat principal est compris dans la zone intertidale.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La couleur bleue que peut prendre le corail est attrait pour la bijouterie et l'aquariophilie. Cependant, le réchauffement climatique entraîne un blanchissement des coraux qui deviennent plus sensibles aux maladies. L'acidification des océans est une autre menace qui pèse sur l'espèce. En possession de ces données et puisque la population générale est en déclin, l'Union internationale pour la conservation de la nature (UICN) place H. coerulea dans la catégorie des espèces « Vulnérables »[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couleur bleue que peut prendre le corail est attrait pour la bijouterie et l'aquariophilie. Cependant, le réchauffement climatique entraîne un blanchissement des coraux qui deviennent plus sensibles aux maladies. L'acidification des océans est une autre menace qui pèse sur l'espèce. En possession de ces données et puisque la population générale est en déclin, l'Union internationale pour la conservation de la nature (UICN) place H. coerulea dans la catégorie des espèces « Vulnérables ».
 </t>
         </is>
       </c>
